--- a/TestJson/SDTM_Results.xlsx
+++ b/TestJson/SDTM_Results.xlsx
@@ -2758,42 +2758,42 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t>IETESTCD</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t>IETEST</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t>IECAT</t>
         </is>
       </c>
       <c r="F1" s="11" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t>IESCAT</t>
         </is>
       </c>
       <c r="G1" s="37" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t>TIRL</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>Fixed content</t>
+          <t>TIVERS</t>
         </is>
       </c>
       <c r="I1" s="27" t="n"/>
@@ -2803,32 +2803,32 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t>Error in expression study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>dentifier}</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>ategory.decode}</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
+          <t>otes.codes.decode}</t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
@@ -2836,7 +2836,11 @@
           <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
         </is>
       </c>
-      <c r="H2" s="33" t="n"/>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t>Error in expression study.versions.versionIdentifier</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="29" customHeight="1">
       <c r="A3" s="9" t="inlineStr">
@@ -3103,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -3124,2812 +3128,405 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t xml:space="preserve">Variable Name </t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t xml:space="preserve">Variable Label </t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t xml:space="preserve">Type </t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t xml:space="preserve">Role </t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t xml:space="preserve">Core </t>
         </is>
       </c>
       <c r="F1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>Mapping Name</t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>JSONATA</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="I1" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="J1" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="K1" s="27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
+          <t>Fixed content</t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="n"/>
+      <c r="J1" s="27" t="n"/>
+      <c r="K1" s="27" t="n"/>
     </row>
     <row r="2" ht="93" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Study Identifier</t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>ADAPT</t>
+          <t>Req</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Adaptive Design</t>
+          <t>Sponsor Study Identifier</t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H2" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>DOMAIN</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Domain Abbreviation</t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>AGEMIN</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>Planned Minimum Age of Subjects</t>
-        </is>
-      </c>
-      <c r="G3" s="32" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
- &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
-        </is>
-      </c>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="n"/>
+      <c r="G3" s="32" t="n"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+          <t>TS</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSSEQ</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Sequence Number</t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Num</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>AGEMAX</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="inlineStr">
-        <is>
-          <t>Planned Minimum Age of Subjects</t>
-        </is>
-      </c>
-      <c r="G4" s="32" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
-        </is>
-      </c>
-      <c r="H4" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n"/>
+      <c r="G4" s="32" t="n"/>
+      <c r="H4" s="33" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSGRPID</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Group ID</t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>BRDNAIND</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>Biospecimen Retention contains DNA Ind</t>
-        </is>
-      </c>
-      <c r="G5" s="32" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.biospecimenRetentions.includesDNA</t>
-        </is>
-      </c>
-      <c r="H5" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="32" t="n"/>
+      <c r="H5" s="33" t="n"/>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSPARMCD</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Trial Summary Parameter Short Name</t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Topic</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>BRIND</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>Biospecimen Retention indicator</t>
-        </is>
-      </c>
-      <c r="G6" s="32" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.biospecimenRetentions.isRetained</t>
-        </is>
-      </c>
-      <c r="H6" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n"/>
+      <c r="G6" s="32" t="n"/>
+      <c r="H6" s="33" t="n"/>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSPARM</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Trial Summary Parameter</t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Synonym Qualifier</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>COMPTRT</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>Comparative Treatment Name</t>
-        </is>
-      </c>
-      <c r="G7" s="32" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions[role.code="C68609"].{id: label}</t>
-        </is>
-      </c>
-      <c r="H7" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>Req</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n"/>
+      <c r="G7" s="32" t="n"/>
+      <c r="H7" s="33" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSVAL</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Parameter Value</t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Result Qualifier</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>CONNAME</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>Contact Name</t>
-        </is>
-      </c>
-      <c r="G8" s="32" t="inlineStr"/>
-      <c r="H8" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n"/>
+      <c r="G8" s="32" t="n"/>
+      <c r="H8" s="33" t="n"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSVALNF</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Parameter Value Null Flavor</t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Result Qualifier</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>CONROLE</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>Contact Role</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="inlineStr"/>
-      <c r="H9" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+          <t>Perm</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n"/>
+      <c r="G9" s="32" t="n"/>
+      <c r="H9" s="33" t="n"/>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSVALCD</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Parameter Value Code</t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Result Qualifier</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
-        <is>
-          <t>Confirmed Response Minimum Duration</t>
-        </is>
-      </c>
-      <c r="G10" s="32" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H10" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>Exp</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n"/>
+      <c r="G10" s="32" t="n"/>
+      <c r="H10" s="33" t="n"/>
     </row>
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSVCDREF</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Name of Reference Terminology</t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Result Qualifier</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>CURTRT</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Current Therapy or Treatment</t>
+          <t>Name of Reference Terminology</t>
         </is>
       </c>
       <c r="G11" s="32" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C165822"].{id: label}</t>
-        </is>
-      </c>
-      <c r="H11" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>..code.codeSystem</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="n"/>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>TSVCDVER</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Version of the Reference Terminology</t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Char</t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Result Qualifier</t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>DMCIND</t>
+          <t>Exp</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Data Monitoring Committee Indicator</t>
+          <t>Version of Reference Terminology</t>
         </is>
       </c>
       <c r="G12" s="32" t="inlineStr">
         <is>
-          <t>dy.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H12" s="33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>DOSE</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Dose Level; Dose per Administration</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.dose.value}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>DOSFRM</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Dose Form</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>DOSFRQ</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Dosing Frequency</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.code}</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>DOSU</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Dose Units</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>EXTTIND</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Extension Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>FCNTRY</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Planned Country of Investigational Sites</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HLTSUBJI</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Healthy Subject Indicator</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>INDIC</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.indications.label</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>INTMODEL</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Intervention Model</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.decode</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.code</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>INTTYPE</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Intervention Type</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: type.decode}</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: type.code}</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: type.codeSystem}</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: type.codeSystemVersion}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>LENGTH</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Trial Length</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>MSEUTIND</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Multiple Site EU Site Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NARMS</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Planned Number of Arms</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>y.versions.studyDesigns.arms)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NCOHORT</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Number of Groups/Cohorts</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NUMSEUST</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Number of Trial Sites EU State</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>OBJEXP</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Trial Exploratory Objective</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>OBJPRIM</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Study Primary Objective; Trial Primary Objective</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>OBJSEC</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Study Secondary Objective; Trial Secondary Objective</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>OBSMODEL</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Observational Model</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.decode</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.code</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>OBSTIMP</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Observational Time Perspective</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>OBSTPOPD</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Obs Study Population Description</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].populations.description</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>OBSTSMM</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Observational Study Sampling Method</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>OUTMSEXP</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Exploratory Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>OUTMSPRI</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Primary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>OUTMSSEC</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Secondary Outcome Measure</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>PCLAS</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Pharmacologic Class</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>PIPIND</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Pediatric Investigation Plan Indicator</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>dy.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>PLANSUB</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ons.studyDesigns.population.plannedEnrollmentNumber.value </t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>PTRTDUR</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Planned Treatment Duration</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>RANDOM</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Trial is Randomized</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>RDIND</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Rare Disease Indicator</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>REGID</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Registry Identifier</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>ROUTE</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Route of Administration</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.code}</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>RTSPCDES</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Retained Biospecimen Description</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>SEXPOP</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sex of Participants</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>SPONSOR</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>ons.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>SPREFID</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Sponsor's Study Reference ID</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>SSEUTIND</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Single Site EU State Trial Indicator</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>STYPE</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Study Type; Study Type Classification</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.studyType.decode</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.studyType.code</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.studyType.codeSystem</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.studyType.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>TBLIND</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.decode</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.code</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystem</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>TCNTRL</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Control Type</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>THERAREA</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Therapeutic Area</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.therapeuticAreas.decode</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.therapeuticAreas.code</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystem</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>TINDTP</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Trial Intent Type</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>TITLE</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Official Study Title; Study Title; Trial Title</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>ons.titles[type.code="C207616"].text</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>TPHASE</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Trial Phase; Trial Phase Classification</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.decode</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.code</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>TRT</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Investigational Therapy or Treatment</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions[role.code="C41161"].{id: label}</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">no data </t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>TTYPE</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Trial Scope; Trial Type</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.code</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
-        </is>
-      </c>
+          <t>..code.codeSystemVersion</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5996,7 +3593,7 @@
       </c>
       <c r="G1" s="27" t="inlineStr">
         <is>
-          <t>Mapping Results</t>
+          <t>TSVAL JSONATA map</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
@@ -6045,17 +3642,9 @@
       </c>
       <c r="G2" s="30" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="87" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
@@ -6082,19 +3671,11 @@
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
+          <t>$min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
 $distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
  &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4" ht="87" customHeight="1">
       <c r="A4" s="15" t="inlineStr">
@@ -6121,18 +3702,15 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
+          <t>$max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
 $distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
         </is>
       </c>
       <c r="H4" s="35" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+          <t>PINF</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="58" customHeight="1">
       <c r="A5" s="15" t="inlineStr">
@@ -6167,17 +3745,9 @@
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.biospecimenRetentions.includesDNA</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+          <t>study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="58" customHeight="1">
       <c r="A6" s="15" t="inlineStr">
@@ -6212,17 +3782,9 @@
       </c>
       <c r="G6" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.biospecimenRetentions.isRetained</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+          <t>study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="15" t="inlineStr">
@@ -6253,17 +3815,9 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C68609"].{id: label}</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+          <t>study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="15" t="inlineStr">
@@ -6296,15 +3850,6 @@
           <t>Contact Name</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -6337,15 +3882,6 @@
           <t>Contact Role</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -6380,17 +3916,9 @@
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+          <t>study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="43.5" customHeight="1">
       <c r="A11" s="15" t="inlineStr">
@@ -6425,17 +3953,9 @@
       </c>
       <c r="G11" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C165822"].{id: label}</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+          <t>study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="29" customHeight="1">
       <c r="A12" s="15" t="inlineStr">
@@ -6462,17 +3982,9 @@
       </c>
       <c r="G12" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+          <t>$exists(study.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
       <c r="A13" s="15" t="inlineStr">
@@ -6507,17 +4019,9 @@
       </c>
       <c r="G13" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.value}</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+          <t>study.versions.studyInterventions{id: administrations.dose.value}</t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
@@ -6552,17 +4056,9 @@
       </c>
       <c r="G14" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+          <t>study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="58" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
@@ -6597,27 +4093,22 @@
       </c>
       <c r="G15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
         </is>
       </c>
       <c r="I15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
         </is>
       </c>
       <c r="J15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -6654,27 +4145,22 @@
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="I16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
         </is>
       </c>
       <c r="J16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -6703,17 +4189,9 @@
       </c>
       <c r="G17" s="36" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="29" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
@@ -6742,15 +4220,6 @@
           <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19" ht="29" customHeight="1">
       <c r="A19" s="15" t="inlineStr">
@@ -6777,17 +4246,9 @@
       </c>
       <c r="G19" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+          <t>$exists(study.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="58" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
@@ -6814,17 +4275,9 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.indications.label</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+          <t>study.versions.studyDesigns.indications.label</t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="43.5" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
@@ -6851,27 +4304,22 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.decode</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.decode</t>
         </is>
       </c>
       <c r="I21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.code</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
         </is>
       </c>
       <c r="J21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
         </is>
       </c>
       <c r="K21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -6908,27 +4356,22 @@
       </c>
       <c r="G22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.decode}</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: type.decode}</t>
         </is>
       </c>
       <c r="I22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.code}</t>
+          <t>study.versions.studyInterventions{id: type.code}</t>
         </is>
       </c>
       <c r="J22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.codeSystem}</t>
+          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.codeSystemVersion}</t>
+          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -6957,17 +4400,14 @@
       </c>
       <c r="G23" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+          <t>study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+          <t>NI</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="29" customHeight="1">
       <c r="A24" s="15" t="inlineStr">
@@ -6992,15 +4432,6 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -7027,17 +4458,9 @@
       </c>
       <c r="G25" s="28" t="inlineStr">
         <is>
-          <t>y.versions.studyDesigns.arms)</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+          <t>$count(study.versions.studyDesigns.arms)</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
@@ -7064,17 +4487,9 @@
       </c>
       <c r="G26" s="29" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+          <t>$exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="29" customHeight="1">
       <c r="A27" s="15" t="inlineStr">
@@ -7099,15 +4514,6 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -7142,17 +4548,9 @@
       </c>
       <c r="G28" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
@@ -7187,17 +4585,9 @@
       </c>
       <c r="G29" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="43.5" customHeight="1">
       <c r="A30" s="15" t="inlineStr">
@@ -7232,17 +4622,9 @@
       </c>
       <c r="G30" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="29" customHeight="1">
       <c r="A31" s="15" t="inlineStr">
@@ -7269,27 +4651,22 @@
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.decode</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.decode</t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.code</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -7318,27 +4695,22 @@
       </c>
       <c r="G32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
         </is>
       </c>
       <c r="I32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
         </is>
       </c>
       <c r="J32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
         </is>
       </c>
       <c r="K32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -7367,17 +4739,9 @@
       </c>
       <c r="G33" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].populations.description</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="43.5" customHeight="1">
       <c r="A34" s="15" t="inlineStr">
@@ -7404,27 +4768,22 @@
       </c>
       <c r="G34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
         </is>
       </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
         </is>
       </c>
       <c r="J34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
         </is>
       </c>
       <c r="K34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -7461,17 +4820,9 @@
       </c>
       <c r="G35" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="29" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
@@ -7506,17 +4857,9 @@
       </c>
       <c r="G36" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
@@ -7551,17 +4894,9 @@
       </c>
       <c r="G37" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="43.5" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
@@ -7592,17 +4927,9 @@
       </c>
       <c r="G38" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+          <t>study.versions.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="29" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
@@ -7629,17 +4956,9 @@
       </c>
       <c r="G39" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+          <t>$exists(study.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="72.5" customHeight="1">
       <c r="A40" s="15" t="inlineStr">
@@ -7666,17 +4985,14 @@
       </c>
       <c r="G40" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ons.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t xml:space="preserve">study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+          <t>NI</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="43.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
@@ -7707,17 +5023,14 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t>study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+          <t>NI</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="29" customHeight="1">
       <c r="A42" s="15" t="inlineStr">
@@ -7744,17 +5057,9 @@
       </c>
       <c r="G42" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+          <t>$exists(study.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="15" t="inlineStr">
@@ -7781,17 +5086,9 @@
       </c>
       <c r="G43" s="29" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+          <t>$exists(study.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="43.5" customHeight="1">
       <c r="A44" s="15" t="inlineStr">
@@ -7824,15 +5121,6 @@
           <t>Registry Identifier</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -7867,27 +5155,22 @@
       </c>
       <c r="G45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.decode}</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.decode}</t>
         </is>
       </c>
       <c r="I45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.code}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
         </is>
       </c>
       <c r="J45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -7922,15 +5205,6 @@
           <t>Retained Biospecimen Description</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="inlineStr">
@@ -7955,15 +5229,6 @@
           <t>Sex of Participants</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
@@ -7990,17 +5255,9 @@
       </c>
       <c r="G48" s="28" t="inlineStr">
         <is>
-          <t>ons.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
@@ -8029,15 +5286,6 @@
           <t>Sponsor's Study Reference ID</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50" ht="29" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
@@ -8062,15 +5310,6 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
@@ -8097,27 +5336,22 @@
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.decode</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.studyType.decode</t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.code</t>
+          <t>study.versions.studyDesigns.studyType.code</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.codeSystem</t>
+          <t>study.versions.studyDesigns.studyType.codeSystem</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.codeSystemVersion</t>
+          <t>study.versions.studyDesigns.studyType.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8146,27 +5380,22 @@
       </c>
       <c r="G52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.decode</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.decode</t>
         </is>
       </c>
       <c r="I52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.code</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
         </is>
       </c>
       <c r="J52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8195,27 +5424,22 @@
       </c>
       <c r="G53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
         </is>
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -8244,27 +5468,22 @@
       </c>
       <c r="G54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.decode</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns.therapeuticAreas.decode</t>
         </is>
       </c>
       <c r="I54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.code</t>
+          <t>study.versions.studyDesigns.therapeuticAreas.code</t>
         </is>
       </c>
       <c r="J54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystem</t>
+          <t>study.versions.studyDesigns.therapeuticAreas.codeSystem</t>
         </is>
       </c>
       <c r="K54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystemVersion</t>
+          <t>study.versions.studyDesigns.therapeuticAreas.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8297,27 +5516,22 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
         </is>
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
         </is>
       </c>
       <c r="J55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
         </is>
       </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8346,17 +5560,9 @@
       </c>
       <c r="G56" s="28" t="inlineStr">
         <is>
-          <t>ons.titles[type.code="C207616"].text</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+          <t>study.versions.titles[type.code="C207616"].text</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="29" customHeight="1">
       <c r="A57" s="15" t="inlineStr">
@@ -8383,27 +5589,27 @@
       </c>
       <c r="G57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.decode</t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.decode</t>
         </is>
       </c>
       <c r="H57" s="35" t="inlineStr">
         <is>
-          <t> </t>
+          <t>NI</t>
         </is>
       </c>
       <c r="I57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.code</t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
         </is>
       </c>
       <c r="J57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -8440,17 +5646,14 @@
       </c>
       <c r="G58" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C41161"].{id: label}</t>
+          <t>study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
         </is>
       </c>
       <c r="H58" s="35" t="inlineStr">
         <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="43.5" customHeight="1">
       <c r="A59" s="15" t="inlineStr">
@@ -8477,27 +5680,22 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t> </t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
         </is>
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.code</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.code</t>
         </is>
       </c>
       <c r="J59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
         </is>
       </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
+          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>

--- a/TestJson/SDTM_Results.xlsx
+++ b/TestJson/SDTM_Results.xlsx
@@ -2838,7 +2838,7 @@
       </c>
       <c r="H2" s="33" t="inlineStr">
         <is>
-          <t>Error in expression study.versions.versionIdentifier</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -3107,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:K3"/>
@@ -3128,405 +3128,2812 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Name </t>
+          <t>STUDYID</t>
         </is>
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Variable Label </t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Type </t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Role </t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Core </t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="F1" s="10" t="inlineStr">
         <is>
-          <t>Mapping Name</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
         <is>
-          <t>JSONATA</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t>Fixed content</t>
-        </is>
-      </c>
-      <c r="I1" s="27" t="n"/>
-      <c r="J1" s="27" t="n"/>
-      <c r="K1" s="27" t="n"/>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="I1" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="J1" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="K1" s="27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
     </row>
     <row r="2" ht="93" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>STUDYID</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
         <is>
-          <t>Study Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>ADAPT</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Sponsor Study Identifier</t>
+          <t>Adaptive Design</t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
-        </is>
-      </c>
-      <c r="H2" s="33" t="n"/>
+          <t>dy.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H2" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t>DOMAIN</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
         <is>
-          <t>Domain Abbreviation</t>
+          <t> </t>
         </is>
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="n"/>
-      <c r="G3" s="32" t="n"/>
+          <t>AGEMIN</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="inlineStr">
+        <is>
+          <t>.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
+$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
+ &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
+        </is>
+      </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
-          <t>TS</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t>TSSEQ</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
         <is>
-          <t>Sequence Number</t>
+          <t> </t>
         </is>
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>Num</t>
+          <t> </t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F4" s="12" t="n"/>
-      <c r="G4" s="32" t="n"/>
-      <c r="H4" s="33" t="n"/>
+          <t>AGEMAX</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="inlineStr">
+        <is>
+          <t>Planned Minimum Age of Subjects</t>
+        </is>
+      </c>
+      <c r="G4" s="32" t="inlineStr">
+        <is>
+          <t>.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
+$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
+        </is>
+      </c>
+      <c r="H4" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t>TSGRPID</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
         <is>
-          <t>Group ID</t>
+          <t> </t>
         </is>
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="32" t="n"/>
-      <c r="H5" s="33" t="n"/>
+          <t>BRDNAIND</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention contains DNA Ind</t>
+        </is>
+      </c>
+      <c r="G5" s="32" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.biospecimenRetentions.includesDNA</t>
+        </is>
+      </c>
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t>TSPARMCD</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter Short Name</t>
+          <t> </t>
         </is>
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t> </t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="n"/>
-      <c r="G6" s="32" t="n"/>
-      <c r="H6" s="33" t="n"/>
+          <t>BRIND</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="inlineStr">
+        <is>
+          <t>Biospecimen Retention indicator</t>
+        </is>
+      </c>
+      <c r="G6" s="32" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.biospecimenRetentions.isRetained</t>
+        </is>
+      </c>
+      <c r="H6" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t>TSPARM</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
         <is>
-          <t>Trial Summary Parameter</t>
+          <t> </t>
         </is>
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="n"/>
-      <c r="G7" s="32" t="n"/>
-      <c r="H7" s="33" t="n"/>
+          <t>COMPTRT</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>Comparative Treatment Name</t>
+        </is>
+      </c>
+      <c r="G7" s="32" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions[role.code="C68609"].{id: label}</t>
+        </is>
+      </c>
+      <c r="H7" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t>TSVAL</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value</t>
+          <t> </t>
         </is>
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="n"/>
-      <c r="G8" s="32" t="n"/>
-      <c r="H8" s="33" t="n"/>
+          <t>CONNAME</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="inlineStr">
+        <is>
+          <t>Contact Name</t>
+        </is>
+      </c>
+      <c r="G8" s="32" t="inlineStr"/>
+      <c r="H8" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t>TSVALNF</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Null Flavor</t>
+          <t> </t>
         </is>
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="n"/>
-      <c r="G9" s="32" t="n"/>
-      <c r="H9" s="33" t="n"/>
+          <t>CONROLE</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="inlineStr">
+        <is>
+          <t>Contact Role</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr"/>
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t>TSVALCD</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
         <is>
-          <t>Parameter Value Code</t>
+          <t> </t>
         </is>
       </c>
       <c r="C10" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="n"/>
-      <c r="G10" s="32" t="n"/>
-      <c r="H10" s="33" t="n"/>
+          <t>CRMDUR</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="inlineStr">
+        <is>
+          <t>Confirmed Response Minimum Duration</t>
+        </is>
+      </c>
+      <c r="G10" s="32" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H10" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t>TSVCDREF</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
+          <t> </t>
         </is>
       </c>
       <c r="C11" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>CURTRT</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Name of Reference Terminology</t>
+          <t>Current Therapy or Treatment</t>
         </is>
       </c>
       <c r="G11" s="32" t="inlineStr">
         <is>
-          <t>..code.codeSystem</t>
-        </is>
-      </c>
-      <c r="H11" s="33" t="n"/>
+          <t>ons.studyInterventions[role.code="C165822"].{id: label}</t>
+        </is>
+      </c>
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t>TSVCDVER</t>
+          <t xml:space="preserve">no data </t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
         <is>
-          <t>Version of the Reference Terminology</t>
+          <t> </t>
         </is>
       </c>
       <c r="C12" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t> </t>
         </is>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>Result Qualifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>Exp</t>
+          <t>DMCIND</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Version of Reference Terminology</t>
+          <t>Data Monitoring Committee Indicator</t>
         </is>
       </c>
       <c r="G12" s="32" t="inlineStr">
         <is>
-          <t>..code.codeSystemVersion</t>
-        </is>
-      </c>
-      <c r="H12" s="33" t="n"/>
+          <t>dy.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H12" s="33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>DOSE</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dose Level; Dose per Administration</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.dose.value}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>DOSFRM</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Dose Form</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>DOSFRQ</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Dosing Frequency</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>DOSU</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Dose Units</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>EXTTIND</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Extension Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>dy.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>FCNTRY</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Planned Country of Investigational Sites</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HLTSUBJI</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Healthy Subject Indicator</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>dy.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>INDIC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.indications.label</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>INTMODEL</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Intervention Model</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.decode</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.code</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>INTTYPE</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: type.decode}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: type.code}</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: type.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: type.codeSystemVersion}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>LENGTH</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Trial Length</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>MSEUTIND</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Multiple Site EU Site Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>NARMS</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Planned Number of Arms</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>y.versions.studyDesigns.arms)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>NCOHORT</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Number of Groups/Cohorts</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>dy.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>NUMSEUST</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Number of Trial Sites EU State</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>OBJEXP</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Trial Exploratory Objective</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>OBJPRIM</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>OBJSEC</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>OBSMODEL</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Observational Model</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.decode</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.code</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>OBSTIMP</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Observational Time Perspective</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>OBSTPOPD</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Obs Study Population Description</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].populations.description</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>OBSTSMM</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Observational Study Sampling Method</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>OUTMSEXP</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Exploratory Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>OUTMSPRI</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Primary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>OUTMSSEC</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Secondary Outcome Measure</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>PCLAS</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Pharmacologic Class</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>PIPIND</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Pediatric Investigation Plan Indicator</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>dy.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>PLANSUB</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ons.studyDesigns.population.plannedEnrollmentNumber.value </t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>PTRTDUR</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Planned Treatment Duration</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>RANDOM</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Trial is Randomized</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>dy.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>RDIND</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Rare Disease Indicator</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>dy.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>REGID</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Registry Identifier</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ROUTE</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Route of Administration</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.code}</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>RTSPCDES</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Retained Biospecimen Description</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SEXPOP</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sex of Participants</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SPONSOR</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Clinical Study Sponsor; Sponsor; Study Sponsor</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>ons.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SPREFID</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Sponsor's Study Reference ID</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SSEUTIND</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Single Site EU State Trial Indicator</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>STYPE</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Study Type; Study Type Classification</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.studyType.decode</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.studyType.code</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.studyType.codeSystem</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.studyType.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TBLIND</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.blindingSchema.standardCode.decode</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.blindingSchema.standardCode.code</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TCNTRL</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Control Type</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>THERAREA</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Therapeutic Area</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.therapeuticAreas.decode</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.therapeuticAreas.code</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.therapeuticAreas.codeSystem</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns.therapeuticAreas.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TINDTP</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Trial Intent Type</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TITLE</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Official Study Title; Study Title; Trial Title</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>ons.titles[type.code="C207616"].text</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TPHASE</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Trial Phase; Trial Phase Classification</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>.versions.studyDesigns.studyPhase.standardCode.decode</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>.versions.studyDesigns.studyPhase.standardCode.code</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TRT</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Investigational Therapy or Treatment</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>ons.studyInterventions[role.code="C41161"].{id: label}</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">no data </t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TTYPE</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.code</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3593,7 +6000,7 @@
       </c>
       <c r="G1" s="27" t="inlineStr">
         <is>
-          <t>TSVAL JSONATA map</t>
+          <t>Mapping Results</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
@@ -3642,9 +6049,17 @@
       </c>
       <c r="G2" s="30" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
-        </is>
-      </c>
+          <t>dy.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3" ht="87" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
@@ -3671,11 +6086,19 @@
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>$min([study.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
+          <t>.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
 $distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
  &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4" ht="87" customHeight="1">
       <c r="A4" s="15" t="inlineStr">
@@ -3702,15 +6125,18 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>$max([study.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
+          <t>.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
 $distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
         </is>
       </c>
       <c r="H4" s="35" t="inlineStr">
         <is>
-          <t>PINF</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5" ht="58" customHeight="1">
       <c r="A5" s="15" t="inlineStr">
@@ -3745,9 +6171,17 @@
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.includesDNA</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.biospecimenRetentions.includesDNA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6" ht="58" customHeight="1">
       <c r="A6" s="15" t="inlineStr">
@@ -3782,9 +6216,17 @@
       </c>
       <c r="G6" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.biospecimenRetentions.isRetained</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.biospecimenRetentions.isRetained</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="15" t="inlineStr">
@@ -3815,9 +6257,17 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions[role.code="C68609"].{id: label}</t>
-        </is>
-      </c>
+          <t>ons.studyInterventions[role.code="C68609"].{id: label}</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="15" t="inlineStr">
@@ -3850,6 +6300,15 @@
           <t>Contact Name</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -3882,6 +6341,15 @@
           <t>Contact Role</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -3916,9 +6384,17 @@
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
-        </is>
-      </c>
+          <t>ons.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11" ht="43.5" customHeight="1">
       <c r="A11" s="15" t="inlineStr">
@@ -3953,9 +6429,17 @@
       </c>
       <c r="G11" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions[role.code="C165822"].{id: label}</t>
-        </is>
-      </c>
+          <t>ons.studyInterventions[role.code="C165822"].{id: label}</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12" ht="29" customHeight="1">
       <c r="A12" s="15" t="inlineStr">
@@ -3982,9 +6466,17 @@
       </c>
       <c r="G12" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
-        </is>
-      </c>
+          <t>dy.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13" ht="43.5" customHeight="1">
       <c r="A13" s="15" t="inlineStr">
@@ -4019,9 +6511,17 @@
       </c>
       <c r="G13" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.value}</t>
-        </is>
-      </c>
+          <t>ons.studyInterventions{id: administrations.dose.value}</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14" ht="43.5" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
@@ -4056,9 +6556,17 @@
       </c>
       <c r="G14" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
-        </is>
-      </c>
+          <t>ons.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15" ht="58" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
@@ -4093,22 +6601,27 @@
       </c>
       <c r="G15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.code}</t>
         </is>
       </c>
       <c r="J15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K15" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -4145,22 +6658,27 @@
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
         </is>
       </c>
       <c r="J16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -4189,9 +6707,17 @@
       </c>
       <c r="G17" s="36" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
-        </is>
-      </c>
+          <t>dy.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18" ht="29" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
@@ -4220,6 +6746,15 @@
           <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19" ht="29" customHeight="1">
       <c r="A19" s="15" t="inlineStr">
@@ -4246,9 +6781,17 @@
       </c>
       <c r="G19" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
-        </is>
-      </c>
+          <t>dy.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20" ht="58" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
@@ -4275,9 +6818,17 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.indications.label</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.indications.label</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21" ht="43.5" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
@@ -4304,22 +6855,27 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.decode</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.decode</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.code</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.code</t>
         </is>
       </c>
       <c r="J21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
         </is>
       </c>
       <c r="K21" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -4356,22 +6912,27 @@
       </c>
       <c r="G22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.decode}</t>
+          <t>ons.studyInterventions{id: type.decode}</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.code}</t>
+          <t>ons.studyInterventions{id: type.code}</t>
         </is>
       </c>
       <c r="J22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystem}</t>
+          <t>ons.studyInterventions{id: type.codeSystem}</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: type.codeSystemVersion}</t>
+          <t>ons.studyInterventions{id: type.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -4400,14 +6961,17 @@
       </c>
       <c r="G23" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+          <t>ons.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NI</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24" ht="29" customHeight="1">
       <c r="A24" s="15" t="inlineStr">
@@ -4432,6 +6996,15 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -4458,9 +7031,17 @@
       </c>
       <c r="G25" s="28" t="inlineStr">
         <is>
-          <t>$count(study.versions.studyDesigns.arms)</t>
-        </is>
-      </c>
+          <t>y.versions.studyDesigns.arms)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
@@ -4487,9 +7068,17 @@
       </c>
       <c r="G26" s="29" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
-        </is>
-      </c>
+          <t>dy.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27" ht="29" customHeight="1">
       <c r="A27" s="15" t="inlineStr">
@@ -4514,6 +7103,15 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -4548,9 +7146,17 @@
       </c>
       <c r="G28" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
@@ -4585,9 +7191,17 @@
       </c>
       <c r="G29" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30" ht="43.5" customHeight="1">
       <c r="A30" s="15" t="inlineStr">
@@ -4622,9 +7236,17 @@
       </c>
       <c r="G30" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31" ht="29" customHeight="1">
       <c r="A31" s="15" t="inlineStr">
@@ -4651,22 +7273,27 @@
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.decode</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.decode</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.code</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.code</t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -4695,22 +7322,27 @@
       </c>
       <c r="G32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
         </is>
       </c>
       <c r="J32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
         </is>
       </c>
       <c r="K32" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -4739,9 +7371,17 @@
       </c>
       <c r="G33" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].populations.description</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns[studyType.code="C16084"].populations.description</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34" ht="43.5" customHeight="1">
       <c r="A34" s="15" t="inlineStr">
@@ -4768,22 +7408,27 @@
       </c>
       <c r="G34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
         </is>
       </c>
       <c r="J34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
         </is>
       </c>
       <c r="K34" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -4820,9 +7465,17 @@
       </c>
       <c r="G35" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36" ht="29" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
@@ -4857,9 +7510,17 @@
       </c>
       <c r="G36" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
@@ -4894,9 +7555,17 @@
       </c>
       <c r="G37" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
+          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38" ht="43.5" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
@@ -4927,9 +7596,17 @@
       </c>
       <c r="G38" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
-        </is>
-      </c>
+          <t>ons.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39" ht="29" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
@@ -4956,9 +7633,17 @@
       </c>
       <c r="G39" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
-        </is>
-      </c>
+          <t>dy.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40" ht="72.5" customHeight="1">
       <c r="A40" s="15" t="inlineStr">
@@ -4985,14 +7670,17 @@
       </c>
       <c r="G40" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">study.versions.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t xml:space="preserve">ons.studyDesigns.population.plannedEnrollmentNumber.value </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>NI</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41" ht="43.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
@@ -5023,14 +7711,17 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t>ons.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>NI</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42" ht="29" customHeight="1">
       <c r="A42" s="15" t="inlineStr">
@@ -5057,9 +7748,17 @@
       </c>
       <c r="G42" s="28" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
-        </is>
-      </c>
+          <t>dy.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="15" t="inlineStr">
@@ -5086,9 +7785,17 @@
       </c>
       <c r="G43" s="29" t="inlineStr">
         <is>
-          <t>$exists(study.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
-        </is>
-      </c>
+          <t>dy.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44" ht="43.5" customHeight="1">
       <c r="A44" s="15" t="inlineStr">
@@ -5121,6 +7828,15 @@
           <t>Registry Identifier</t>
         </is>
       </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -5155,22 +7871,27 @@
       </c>
       <c r="G45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.decode}</t>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.decode}</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.code}</t>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.code}</t>
         </is>
       </c>
       <c r="J45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
         </is>
       </c>
       <c r="K45" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -5205,6 +7926,15 @@
           <t>Retained Biospecimen Description</t>
         </is>
       </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="15" t="inlineStr">
@@ -5229,6 +7959,15 @@
           <t>Sex of Participants</t>
         </is>
       </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
@@ -5255,9 +7994,17 @@
       </c>
       <c r="G48" s="28" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
-        </is>
-      </c>
+          <t>ons.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
@@ -5286,6 +8033,15 @@
           <t>Sponsor's Study Reference ID</t>
         </is>
       </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50" ht="29" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
@@ -5310,6 +8066,15 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
@@ -5336,22 +8101,27 @@
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.decode</t>
+          <t>ons.studyDesigns.studyType.decode</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.code</t>
+          <t>ons.studyDesigns.studyType.code</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.codeSystem</t>
+          <t>ons.studyDesigns.studyType.codeSystem</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.studyType.codeSystemVersion</t>
+          <t>ons.studyDesigns.studyType.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -5380,22 +8150,27 @@
       </c>
       <c r="G52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.decode</t>
+          <t>ons.studyDesigns.blindingSchema.standardCode.decode</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.code</t>
+          <t>ons.studyDesigns.blindingSchema.standardCode.code</t>
         </is>
       </c>
       <c r="J52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K52" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -5424,22 +8199,27 @@
       </c>
       <c r="G53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
         </is>
       </c>
     </row>
@@ -5468,22 +8248,27 @@
       </c>
       <c r="G54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.decode</t>
+          <t>ons.studyDesigns.therapeuticAreas.decode</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.code</t>
+          <t>ons.studyDesigns.therapeuticAreas.code</t>
         </is>
       </c>
       <c r="J54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.codeSystem</t>
+          <t>ons.studyDesigns.therapeuticAreas.codeSystem</t>
         </is>
       </c>
       <c r="K54" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.therapeuticAreas.codeSystemVersion</t>
+          <t>ons.studyDesigns.therapeuticAreas.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -5516,22 +8301,27 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
         </is>
       </c>
       <c r="J55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
         </is>
       </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -5560,9 +8350,17 @@
       </c>
       <c r="G56" s="28" t="inlineStr">
         <is>
-          <t>study.versions.titles[type.code="C207616"].text</t>
-        </is>
-      </c>
+          <t>ons.titles[type.code="C207616"].text</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57" ht="29" customHeight="1">
       <c r="A57" s="15" t="inlineStr">
@@ -5589,27 +8387,27 @@
       </c>
       <c r="G57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.decode</t>
+          <t>.versions.studyDesigns.studyPhase.standardCode.decode</t>
         </is>
       </c>
       <c r="H57" s="35" t="inlineStr">
         <is>
-          <t>NI</t>
+          <t> </t>
         </is>
       </c>
       <c r="I57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.code</t>
+          <t>.versions.studyDesigns.studyPhase.standardCode.code</t>
         </is>
       </c>
       <c r="J57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
         </is>
       </c>
       <c r="K57" s="31" t="inlineStr">
         <is>
-          <t>study.study.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
@@ -5646,14 +8444,17 @@
       </c>
       <c r="G58" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyInterventions[role.code="C41161"].{id: label}</t>
+          <t>ons.studyInterventions[role.code="C41161"].{id: label}</t>
         </is>
       </c>
       <c r="H58" s="35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
+          <t> </t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59" ht="43.5" customHeight="1">
       <c r="A59" s="15" t="inlineStr">
@@ -5680,22 +8481,27 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t> </t>
         </is>
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.code</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.code</t>
         </is>
       </c>
       <c r="J59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
         </is>
       </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
+          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
         </is>
       </c>
     </row>

--- a/TestJson/SDTM_Results.xlsx
+++ b/TestJson/SDTM_Results.xlsx
@@ -2740,7 +2740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView topLeftCell="B3" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
@@ -2803,7 +2803,7 @@
     <row r="2" ht="72.5" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t>Error in expression study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -2813,32 +2813,32 @@
       </c>
       <c r="C2" s="9" t="inlineStr">
         <is>
-          <t>dentifier}</t>
+          <t>01</t>
         </is>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t>function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
+          <t>&lt;p&gt;Male and female participants &lt;usdm:tag name="min_age"/&gt; - &lt;usdm:tag name="max_age"/&gt; years of age.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>ategory.decode}</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>otes.codes.decode}</t>
+          <t> </t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t>study.versions.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0]; studyIdentifiers[scopeId=$sponsorIdVal].text;)</t>
+          <t> </t>
         </is>
       </c>
       <c r="H2" s="33" t="inlineStr">
         <is>
-          <t> </t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2855,21 +2855,29 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>02</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>&lt;p&gt;Diagnosed with early and/or moderate &lt;usdm:tag name="StudyIndication"/&gt; at least 6 months before study participation.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="n"/>
-      <c r="G3" s="38" t="n"/>
+          <t>Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G3" s="38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H3" s="9" t="inlineStr">
         <is>
           <t>TI</t>
@@ -2889,27 +2897,27 @@
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>03</t>
         </is>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t>Topic</t>
+          <t>&lt;p&gt;Able to read, understand and to provide written consent.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>Incl/Excl Criterion Short Name</t>
+          <t> </t>
         </is>
       </c>
       <c r="G4" s="39" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.eligibilityCriteria.{id: identifier}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H4" s="33" t="n"/>
@@ -2927,27 +2935,27 @@
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>04</t>
         </is>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t>Synonym Qualifier</t>
+          <t>&lt;p&gt;Female study participants should not be &lt;usdm:tag name="Pregnant"/&gt; or plan to become pregnant during study participation and for 6 months after last investigational product administration.</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Criterion</t>
+          <t> </t>
         </is>
       </c>
       <c r="G5" s="41" t="inlineStr">
         <is>
-          <t>study.versions.($EligTxt := function($id) {(eligibilityCriterionItems[id=$id].text)}; studyDesigns.eligibilityCriteria{id: $EligTxt(criterionItemId)})</t>
+          <t> </t>
         </is>
       </c>
       <c r="H5" s="33" t="n"/>
@@ -2965,27 +2973,27 @@
       </c>
       <c r="C6" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>05</t>
         </is>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t>Grouping Qualifier</t>
+          <t>&lt;p&gt;Male participants if their sexual partners can become pregnant should use a method of contraception during study participation and for 6 months after the last administration of the investigated product.</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>Req</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Category</t>
+          <t> </t>
         </is>
       </c>
       <c r="G6" s="39" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.eligibilityCriteria{id: category.decode}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H6" s="33" t="n"/>
@@ -3003,27 +3011,27 @@
       </c>
       <c r="C7" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>06</t>
         </is>
       </c>
       <c r="D7" s="9" t="inlineStr">
         <is>
-          <t>Grouping Qualifier</t>
+          <t>&lt;p&gt;Study participant is able and willing to comply with the requirements of this clinical study.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>Inclusion/Exclusion Subcategory</t>
+          <t> </t>
         </is>
       </c>
       <c r="G7" s="39" t="inlineStr">
         <is>
-          <t>study.versions.studyDesigns.eligibilityCriteria{id: notes.codes.decode}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H7" s="33" t="n"/>
@@ -3041,21 +3049,29 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>07</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t>Rule</t>
+          <t>&lt;p&gt;Parkinson s disease subjects deemed appropriate for treatment of motor symptoms with a &lt;usdm:tag name="BC1_UDPRS"/&gt; Part III score &gt;&lt;usdm:tag name="BC1_MinValExcl"/&gt;.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="n"/>
-      <c r="G8" s="38" t="n"/>
+          <t>Inclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G8" s="38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H8" s="33" t="n"/>
     </row>
     <row r="9" ht="29" customHeight="1">
@@ -3071,30 +3087,641 @@
       </c>
       <c r="C9" s="9" t="inlineStr">
         <is>
-          <t>Char</t>
+          <t>08</t>
         </is>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t>Record Qualifier</t>
+          <t>&lt;p&gt;A reliable caregiver who is in frequent or daily contact with the patient and who will accompany the patient to the office and/or be available by telephone at designated times, will monitor administration of prescribed medications, and will be responsible for the overall care of the patient at home. The caregiver and the patient must be able to communicate in English and willing to comply with 26 weeks of transdermal therapy.&lt;/p&gt;</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>Perm</t>
+          <t>Inclusion Criteria</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>Protocol Criteria Versions</t>
+          <t> </t>
         </is>
       </c>
       <c r="G9" s="38" t="inlineStr">
         <is>
-          <t>study.versions.versionIdentifier</t>
+          <t> </t>
         </is>
       </c>
       <c r="H9" s="33" t="n"/>
+    </row>
+    <row r="10">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Persons who have previously completed or withdrawn from this study or any other study investigating xanomeline TTS or the oral formulation of xanomeline.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Use of any investigational agent or approved Alzheimer's therapeutic medication within 30 days prior to enrollment into the study.&lt;/p&gt;"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Diagnosis of serious neurological conditions, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Stroke or vascular dementia documented by clinical history and/or radiographic findings interpretable by the investigator as indicative of these disorders&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Seizure disorder other than simple childhood febrile seizures&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe head trauma resulting in protracted loss of consciousness within the last 5 years, or multiple episodes of head trauma&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Parkinson\'s disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Multiple sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Amyotrophic lateral sclerosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Myasthenia gravis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Episode of depression meeting DSM-IV criteria within 3 months of screening.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of the following:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Schizophrenia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bipolar Disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ethanol or psychoactive drug abuse or dependence. &lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history of syncope within the last 5 years.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16b</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Evidence from ECG recording at screening of any of the following conditions :&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Left bundle branch block&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Bradycardia ≤50 beats per minute&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sinus pauses &amp;gt;2 seconds&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Second or third degree heart block unless treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Wolff-Parkinson-White syndrome&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Sustained supraventricular tachyarrhythmia including SVT≥10 sec, atrial fibrillation, atrial flutter.&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Ventricular tachycardia at a rate of ≥120 beats per minute lasting≥10 seconds.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious cardiovascular disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Clinically significant arrhythmia&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic sick sinus syndrome not treated with a pacemaker&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Congestive heart failure refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Angina except angina controlled with PRN nitroglycerin&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Resting heart rate &amp;lt;50 or &amp;gt;100 beats per minute, on physical exam&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled hypertension.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious gastrointestinal disorder, including &lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Chronic peptic/duodenal/gastric/esophageal ulcer that are untreated or refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Symptomatic diverticular disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Inflammatory bowel disease&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Pancreatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Hepatitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Cirrhosis of the liver.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious endocrine disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled Insulin Dependent Diabetes Mellitus (IDDM)&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Diabetic ketoacidosis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hyperthyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Untreated hypothyroidism&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Other untreated endocrinological disorder&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>&lt;p&gt; A history within the last 5 years of a serious respiratory disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Asthma with bronchospasm refractory to treatment&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Decompensated chronic obstructive pulmonary disease.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious genitourinary disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Renal failure&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Uncontrolled urinary retention.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious rheumatologic disorder, including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;Lupus&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Temporal arteritis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;Severe rheumatoid arthritis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A known history of human immunodeficiency virus (HIV) within the last 5 years.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a serious infectious disease including&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n&lt;li&gt;&lt;p&gt;a)  Neurosyphilis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;b)  Meningitis&lt;/p&gt;&lt;/li&gt;\n&lt;li&gt;&lt;p&gt;c)  Encephalitis.&lt;/p&gt;&lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;A history within the last 5 years of a primary or recurrent malignant disease with the exception of resected cutaneous squamous cell carcinoma in situ, basal cell carcinoma, cervical carcinoma in situ, or in situ prostate cancer with a normal PSA postresection.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Visual, hearing, or communication disabilities impairing the ability to participate in the study; (for example, inability to speak or understand English, illiteracy).&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>27b</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Laboratory test values exceeding the Lilly Reference Range III for the patient's age in any of the following analytes: ↑ creatinine, ↑ total bilirubin, ↑ SGOT, ↑ SGPT, ↑ alkaline phosphatase, ↑ GGT, ↑↓ hemoglobin, ↑↓ white blood cell count, ↑↓ platelet count, ↑↓ serum sodium, potassium, or calcium.&lt;/p&gt;\n&lt;p&gt;If values exceed these laboratory reference ranges, clinical significance will be judged by the monitoring physicians. If the monitoring physician determines that the deviation from the reference range is not clinically significant, the patient may be included in the study. This decision will be documented.&lt;/p&gt;"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>28b</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>29b</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Positive syphilis screening.&lt;/p&gt;\n&lt;p&gt;Positive syphilis screening. As determined by positive RPR followed up by confirmatory FTA-Abs. Confirmed patients are excluded unless there is a documented medical history of an alternative disease (for example, yaws) which caused the lab abnormality.&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>30b</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Glycosylated hemoglobin (A1C). Required only on patients with known diabetes mellitus or random blood sugar &amp;gt;200 on screening labs. Patients will be excluded if levels are &amp;gt;9.5%&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>31b</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;Treatment with the following medications within the specified washout periods prior to enrollment and during the\n  study:&lt;/p&gt;\n&lt;ol style="list-style-type: lower-alpha;"&gt;\n  &lt;li&gt;\n    &lt;p&gt;Anticonvulsants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depakote&amp;#174; (valproic acid) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilantin&amp;#174; (phenytoin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Felbatol&amp;#174;\n          (felbamate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Klonopin&amp;#174; (clonazepam)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lamictal&amp;#174; (lamotrigine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mysoline&amp;#174; (primidone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Neurontin&amp;#174;\n          (gabapentin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenobarbitol&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tegretol&amp;#174; (carbamazepine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Alpha receptor blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aldomet&amp;#174; (methyldopa) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardura&amp;#174;\n          (doxazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Catapres&amp;#174; (clonidine)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hytrin&amp;#174; (terazosin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Minipress&amp;#174; (prazosin)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenex&amp;#174; (guanfacine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wytensin&amp;#174;\n          (guanabenz) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of low doses\n        (2 mg daily) of either Hytrin&lt;/b&gt;&amp;#174; &lt;b&gt;or Cardura&lt;/b&gt;&amp;#174; &lt;b&gt;for relief of\n        urinary retention for patients with prostatic hypertrophy will be considered\n        on a case-by-case basis provided blood pressure is stable and the medication\n        has not had demonstrable effect on dementia symptoms in the opinion of the treating\n        physician. Contact CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Calcium channel blockers\n      that are CNS active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Calan&amp;#174; , Isoptin&amp;#174; , Verelan&amp;#174; (verapamil) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cardizem&amp;#174; (diltiazem) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nimotop&amp;#174;\n          (nimodipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adalat&amp;#174; , Procardia XL&amp;#174;\n          (nifedipine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cardene&lt;/b&gt;&amp;#174; &lt;b&gt;(nicardipine),\n        Norvasc&lt;/b&gt;&amp;#174; &lt;b&gt;, (amlodipine), and DynaCirc&lt;/b&gt;&amp;#174; &lt;b&gt;(isradipine) will\n        be allowed during the study. If a patient is taking an excluded calcium channel\n        blocker and is changed to an equivalent dose of an allowed calcium channel blocker,\n        enrollment may proceed in as little as 24 hours though 1 week is preferred when\n        possible.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta blockers including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Betapace&amp;#174; (sotalol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Inderal&amp;#174; (propranolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lopressor&amp;#174;\n          , Toprol XL&amp;#174; (metoprolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Corgard&amp;#174; (nadolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sectral&amp;#174; (acebutolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tenormin&amp;#174; (atenolol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Visken&amp;#174; (pindolol)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Beta\n        blocker eye drops for glaucoma will be considered on a case-by-case basis. Call\n        medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Beta sympathomimetics (unless inhaled) including\n      but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Alupent&amp;#174; tablets\n          (metaproterenol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Brethine&amp;#174; tablets\n          (terbutaline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dopamine &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Proventil Repetabs&amp;#174; , Ventolin&amp;#174; tablets (albuterol tablets)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;Parasympathomimetics (cholinergics) (unless opthalmic) including but not limited to\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antilirium&amp;#174; (physostigmine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aricept&amp;#174; (donepezil) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cognex&amp;#174; (tacrine) &lt;/td&gt;\n        &lt;td&gt;1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mestinon&amp;#174; (pyridostigmine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Reglan&amp;#174; (metoclopramide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urecholine&amp;#174;\n          , Duvoid (bethanechol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Cholinergic eye drops for treatment of glaucoma will be allowed during the study on a case-by-case basis.\n        Please contact the CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Muscle relaxants-centrally active including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Equanil&amp;#174; (meprobamate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Flexeril&amp;#174; (cyclobenzaprine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lioresal&amp;#174; (baclofen) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norflex&amp;#174; (orphenadrine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parafon Forte&amp;#174; (chlorzoxazone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robaxin&amp;#174; (methocarbamol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Skelaxin&amp;#174; (metaxalone)\n        &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Soma&amp;#174; (carisoprodol) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Monamine oxidase inhibitors (MAOI) including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eldepryl&amp;#174; (selegiline)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nardil&amp;#174; (phenelzine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Parnate&amp;#174; (tranylcypromine) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Parasympatholytics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Antivert&amp;#174; , Bonine&amp;#174; , Dramamine II&amp;#174; (meclizine)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Artane&amp;#174; (trihexyphenidyl)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bellergal-S&amp;#174; (alkaloids of belladonna and ergotamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Bentyl&amp;#174; (dicyclomine) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cogentin&amp;#174; (benztropine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cystospaz&amp;#174;, Levsin&amp;#174; , Levsinex&amp;#174; (hyoscyamine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ditropan&amp;#174;\n          (oxybutynin) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Donnatal&amp;#174; , Hyosophen&amp;#174;\n          (atropine, scopolamine, hyoscyamine and phenobarbitol) &lt;/td&gt;\n        &lt;td&gt;1 month &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dramamine&amp;#174; (dimenhydrinate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lomotil&amp;#174;, Lonox&amp;#174; (atropine, diphenoxylate) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pro-Banthine&amp;#174;(propantheline) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Robinul&amp;#174; (glycopyrrolate)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tigan&amp;#174; (trimethobenzamide) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Transderm-Scop&amp;#174; (scopolamine) &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Urispas&amp;#174; (flavoxate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antidepressants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Anafranil&amp;#174; (clomipramine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Asendin&amp;#174;\n          (amoxapine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Desyrel&amp;#174; (trazodone)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Effexor&amp;#174; (venlafaxine) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Elavil&amp;#174; (amitriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ludiomil&amp;#174;\n          (maprotiline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpramin&amp;#174; (desipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pamelor&amp;#174; , Aventyl&amp;#174; (nortriptyline)&lt;/td&gt;\n        &lt;td&gt; 1\n          month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Paxil&amp;#174; (paroxetine)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prozac&amp;#174;\n          (fluoxetine&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Remeron&amp;#174; (mirtazapine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serzone&amp;#174; (nefazodone) &lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Sinequan&amp;#174;\n          (doxepin)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tofranil&amp;#174; (imipramine)&lt;/td&gt;\n        &lt;td&gt;\n          1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vivactil&amp;#174; (protriptyline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wellbutrin&amp;#174; (bupropion)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zoloft&amp;#174;\n          (sertraline)&lt;/td&gt;\n        &lt;td&gt; 1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Systemic corticosteroids including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cortisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Decadron&amp;#174; (dexamethasone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Depo-Medrol&amp;#174; (methylprednisolone)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prednisone&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Xanthine derivatives\n      including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Aminophylline&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Fioricet&amp;#174; , Esgic&amp;#174; , Phrenilin Forte&amp;#174; (caffeine, butalbital)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Theo-Dur&amp;#174; (theophylline)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Wigraine&amp;#174; , Cafergot&amp;#174; (caffeine, ergotamine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n        &lt;td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H2 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Axid&amp;#174; (nizatidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Pepcid&amp;#174; (famotidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tagamet&amp;#174; (cimetidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zantac&amp;#174; (ranitidine)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;If an H 2 antagonist is needed by the patient, Axid&lt;/b&gt;&amp;#174; &lt;b&gt;will be&lt;/b&gt; &lt;b&gt;allowed on a case-by-case\n        basis. Please consult CRO&lt;/b&gt; &lt;b&gt;medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Narcotic Analgesics including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Darvocet-N\n          100&amp;#174; , (propoxyphene)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Demerol&amp;#174; (meperidine)&lt;/td&gt;\n        &lt;td&gt;1\n          week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dilaudid&amp;#174; (hydromorphone)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Duragesic&amp;#174; (fentanyl)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;MS\n          Contin&amp;#174; , Roxanol&amp;#174; , Oramorph&amp;#174; (morphine) &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percocet&amp;#174; , Roxicet&amp;#174; (oxycodone with acetaminophen)&lt;/td&gt;\n        &lt;td&gt;3\n          days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Percodan&amp;#174; , Roxiprin&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stadol&amp;#174; (butorphanol)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Talacen&amp;#174;\n          (pentazocine)&lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylenol #2&amp;#174; , #3&amp;#174;\n          , #4&amp;#174; (codeine and acetaminophen) &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tylox&amp;#174;\n          , Roxilox&amp;#174; (oxycodone)&lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vicodin&amp;#174;, Lorcet&amp;#174; (hydrocodone)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Percocet\n        (oxycodone with acetaminophen) and Tylenol&lt;/b&gt;&amp;#174; &lt;b&gt;with codeine #2, #3, #4\n        (acetaminophen + codeine) ARE allowed in the month prior to enrollment, but\n        are not permitted in the 3 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Neuroleptics\n      (antipsychotics) including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Clozaril&amp;#174;\n          (clozapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Haldol&amp;#174; (haloperidol)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Loxitane&amp;#174; (loxapine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mellaril&amp;#174; (thioridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Moban&amp;#174;\n          (molindone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Navane&amp;#174; (thiothixene)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Orap&amp;#174; (pimozide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Prolixin&amp;#174; (fluphenazine)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Risperdal&amp;#174;\n          (risperidone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Stelazine&amp;#174; (trifluoperazine)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Thorazine&amp;#174; (chlorpromazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Trilafon&amp;#174; (perphenazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serentil&amp;#174;\n          (mesoridazine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;The use of neuroleptics\n        on a daily basis must be discontinued 2 to 4 weeks prior to enrollment. The\n        use of neuroleptics on an as-needed basis is allowable during the screening\n        period, but the last dose must be at least 7 days prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antianxiety agents including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Atarax&amp;#174; (hydroxyzine)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;BuSpar&amp;#174;\n          (buspirone)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Librium&amp;#174; (chlordiazepoxide)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Serax&amp;#174; (oxazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tranxene&amp;#174; (clorazepate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Valium&amp;#174; (diazepam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Vistaril&amp;#174; (hydroxyzine pamoate)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Xanax&amp;#174; (alprazolam)&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Ativan&lt;/b&gt;&amp;#174; &lt;b&gt;(lorazepam) should be discontinued on a daily\n        basis 2 weeks&lt;/b&gt;&lt;/p&gt;\n    &lt;p&gt;&lt;b&gt;prior to enrollment. It may be used on an as-needed\n        basis during the screening period, but is not permitted in the 24 hours prior\n        to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Hypnotics/Sedatives including but not limited to&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ambien&amp;#174; (zolpidem)&lt;/td&gt;\n        &lt;td&gt; 3 days\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dalmane&amp;#174; (flurazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Doral&amp;#174; (quazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Halcion&amp;#174; (triazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Nembutal&amp;#174; &lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;ProSom&amp;#174; (estazolam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Restoril&amp;#174;\n          (temazepam)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seconal&amp;#174;&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Chloral Hydrate is allowed on an as-needed basis during screening, but is not permitted in the 24 hours prior to enrollment.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Histamine (H1 ) antagonists including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Actifed&amp;#174; , Actifed Plus&amp;#174; (triprolidine) Benadryl&amp;#174;\n          , Unisom&amp;#174; , Tylenol P.M.&amp;#174; &lt;/td&gt;\n        &lt;td&gt;3 days &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;(diphenhydramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Compazine&amp;#174; (prochlorperazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Contac&amp;#174; , Coricidin D&amp;#174; , Sinutab&amp;#174; , Novahistine&amp;#174; , Alka\n          Seltzer Plus&amp;#174; , Naldecon&amp;#174; , Sudafed Plus&amp;#174; , Tylenol Cold&amp;#174; , Tylenol\n          Cold and Flu&amp;#174; (chlorpheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Dimetapp&amp;#174;\n          (brompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Drixoral&amp;#174; (dexbrompheniramine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Hismanal&amp;#174; (astemizole)&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Phenergan&amp;#174;\n          (promethazine)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Seldane&amp;#174; (terfenadine)&lt;/td&gt;\n        &lt;td&gt;1\n          week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tavist&amp;#174; (clemastine fumarate)&lt;/td&gt;\n        &lt;td&gt;3 days&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Zyrtec&amp;#174; (cetrizine) &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Allegra&lt;/b&gt;&amp;#174;\n      &lt;b&gt;(fexofenadine hydrochloride) or Claritin&lt;/b&gt;&amp;#174; &lt;b&gt;(loratadine) may be taken\n        on as-needed basis during screening but must be discontinued within 24 hours\n        of enrollment.&lt;/b&gt;\n    &lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Stimulants including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cylert&amp;#174; (pemoline) &lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ritalin&amp;#174; (methylphenidate)&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Antiarrhythmics including but not limited to the following&lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Adenocard&amp;#174; (adenosine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Cordarone&amp;#174;\n          (amiodarone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ethmozine&amp;#174; (moricizine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Mexitil&amp;#174; (mexiletine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Norpace&amp;#174; (disopyramide)\n        &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Procan&amp;#174; (procainamide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Quinaglute&amp;#174;\n          (quinidine) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Rythmol&amp;#174; (propafenone) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tambocor&amp;#174;\n          (flecainide) &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tonocard&amp;#174; (tocainide)&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n    &lt;p&gt;&lt;b&gt;Requirement of these drugs for control of cardiac arrhythmia indicates that\n        the patient should be excluded from the study. If discontinuation of an antiarrhythmic\n        is considered, please discuss case with CRO medical monitor.&lt;/b&gt;&lt;/p&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Miscellaneous drugs including but not limited to &lt;/p&gt;\n    &lt;table class="table"&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Coenzyme\n          Q&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Eskalith&amp;#174; , Lithobid&amp;#174; (lithium)&lt;/td&gt;\n        &lt;td&gt;2\n          weeks &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Ginkgo biloba&lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin\n        &lt;/td&gt;\n        &lt;td&gt;1 week&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lecithin &lt;/td&gt;\n        &lt;td&gt;1 week &lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Lupron&lt;/td&gt;\n        &lt;td&gt;2 weeks&lt;/td&gt;\n      &lt;/tr&gt;\n      &lt;tr&gt;\n        &lt;td&gt;Tamoxifen&lt;/td&gt;\n        &lt;td&gt;1 month&lt;/td&gt;\n      &lt;/tr&gt;\n    &lt;/table&gt;\n  &lt;/li&gt;\n  &lt;li&gt;\n    &lt;p&gt;Estrogen supplements are permitted during the study, but dosage must be stable for at least 3 months prior to\n      enrollment.&lt;/p&gt;\n  &lt;/li&gt;\n&lt;/ol&gt;</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Exclusion Criteria</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3133,59 +3760,59 @@
       </c>
       <c r="B1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="C1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="D1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="E1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="F1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="G1" s="10" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="H1" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="I1" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="J1" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="K1" s="27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
     </row>
     <row r="2" ht="93" customHeight="1">
       <c r="A2" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B2" s="9" t="inlineStr">
@@ -3193,29 +3820,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C2" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C2" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E2" s="9" t="inlineStr">
         <is>
-          <t>ADAPT</t>
+          <t>CRMDUR</t>
         </is>
       </c>
       <c r="F2" s="6" t="inlineStr">
         <is>
-          <t>Adaptive Design</t>
+          <t>Confirmed Response Minimum Duration</t>
         </is>
       </c>
       <c r="G2" s="34" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+          <t>1 Day</t>
         </is>
       </c>
       <c r="H2" s="33" t="inlineStr">
@@ -3223,14 +3848,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B3" s="9" t="inlineStr">
@@ -3238,46 +3860,35 @@
           <t> </t>
         </is>
       </c>
-      <c r="C3" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C3" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D3" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E3" s="9" t="inlineStr">
         <is>
-          <t>AGEMIN</t>
+          <t>DOSE</t>
         </is>
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>Planned Minimum Age of Subjects</t>
-        </is>
-      </c>
-      <c r="G3" s="32" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
- &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
-        </is>
-      </c>
+          <t>Dose Level; Dose per Administration</t>
+        </is>
+      </c>
+      <c r="G3" s="32" t="inlineStr"/>
       <c r="H3" s="9" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B4" s="9" t="inlineStr">
@@ -3285,30 +3896,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C4" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D4" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E4" s="9" t="inlineStr">
         <is>
-          <t>AGEMAX</t>
+          <t>DOSFRM</t>
         </is>
       </c>
       <c r="F4" s="12" t="inlineStr">
         <is>
-          <t>Planned Minimum Age of Subjects</t>
+          <t>Dose Form</t>
         </is>
       </c>
       <c r="G4" s="32" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
+          <t>TABLET</t>
         </is>
       </c>
       <c r="H4" s="33" t="inlineStr">
@@ -3316,14 +3924,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B5" s="9" t="inlineStr">
@@ -3331,29 +3936,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C5" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C5" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D5" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E5" s="9" t="inlineStr">
         <is>
-          <t>BRDNAIND</t>
+          <t>DOSFRQ</t>
         </is>
       </c>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention contains DNA Ind</t>
+          <t>Dosing Frequency</t>
         </is>
       </c>
       <c r="G5" s="32" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.biospecimenRetentions.includesDNA</t>
+          <t>BID</t>
         </is>
       </c>
       <c r="H5" s="33" t="inlineStr">
@@ -3361,14 +3964,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>C64496</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="43.5" customHeight="1">
       <c r="A6" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B6" s="9" t="inlineStr">
@@ -3376,29 +3991,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C6" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C6" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D6" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E6" s="9" t="inlineStr">
         <is>
-          <t>BRIND</t>
+          <t>DOSU</t>
         </is>
       </c>
       <c r="F6" s="12" t="inlineStr">
         <is>
-          <t>Biospecimen Retention indicator</t>
+          <t>Dose Units</t>
         </is>
       </c>
       <c r="G6" s="32" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.biospecimenRetentions.isRetained</t>
+          <t>Milligram</t>
         </is>
       </c>
       <c r="H6" s="33" t="inlineStr">
@@ -3406,14 +4019,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C28253</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="29" customHeight="1">
       <c r="A7" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B7" s="9" t="inlineStr">
@@ -3433,17 +4058,17 @@
       </c>
       <c r="E7" s="9" t="inlineStr">
         <is>
-          <t>COMPTRT</t>
+          <t>INDIC</t>
         </is>
       </c>
       <c r="F7" s="12" t="inlineStr">
         <is>
-          <t>Comparative Treatment Name</t>
+          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
         </is>
       </c>
       <c r="G7" s="32" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C68609"].{id: label}</t>
+          <t>'s disease", "Parkinson's disease"</t>
         </is>
       </c>
       <c r="H7" s="33" t="inlineStr">
@@ -3451,14 +4076,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>C28253</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B8" s="9" t="inlineStr">
@@ -3466,40 +4103,54 @@
           <t> </t>
         </is>
       </c>
-      <c r="C8" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C8" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D8" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E8" s="9" t="inlineStr">
         <is>
-          <t>CONNAME</t>
+          <t>INTTYPE</t>
         </is>
       </c>
       <c r="F8" s="12" t="inlineStr">
         <is>
-          <t>Contact Name</t>
-        </is>
-      </c>
-      <c r="G8" s="32" t="inlineStr"/>
+          <t>Intervention Type</t>
+        </is>
+      </c>
+      <c r="G8" s="32" t="inlineStr">
+        <is>
+          <t>Pharmacologic Substance</t>
+        </is>
+      </c>
       <c r="H8" s="33" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B9" s="9" t="inlineStr">
@@ -3507,40 +4158,54 @@
           <t> </t>
         </is>
       </c>
-      <c r="C9" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C9" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D9" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_1</t>
         </is>
       </c>
       <c r="E9" s="9" t="inlineStr">
         <is>
-          <t>CONROLE</t>
+          <t>OBJPRIM</t>
         </is>
       </c>
       <c r="F9" s="12" t="inlineStr">
         <is>
-          <t>Contact Role</t>
-        </is>
-      </c>
-      <c r="G9" s="32" t="inlineStr"/>
+          <t>Study Primary Objective; Trial Primary Objective</t>
+        </is>
+      </c>
+      <c r="G9" s="32" t="inlineStr">
+        <is>
+          <t>•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.</t>
+        </is>
+      </c>
       <c r="H9" s="33" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="29" customHeight="1">
       <c r="A10" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B10" s="9" t="inlineStr">
@@ -3548,29 +4213,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C10" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C10" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D10" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_2</t>
         </is>
       </c>
       <c r="E10" s="9" t="inlineStr">
         <is>
-          <t>CRMDUR</t>
+          <t>OBJSEC</t>
         </is>
       </c>
       <c r="F10" s="12" t="inlineStr">
         <is>
-          <t>Confirmed Response Minimum Duration</t>
+          <t>Study Secondary Objective; Trial Secondary Objective</t>
         </is>
       </c>
       <c r="G10" s="32" t="inlineStr">
         <is>
-          <t>ons.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+          <t>•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.</t>
         </is>
       </c>
       <c r="H10" s="33" t="inlineStr">
@@ -3578,14 +4241,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>C1909</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="29" customHeight="1">
       <c r="A11" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B11" s="9" t="inlineStr">
@@ -3593,29 +4268,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C11" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C11" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D11" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E11" s="9" t="inlineStr">
         <is>
-          <t>CURTRT</t>
+          <t>PTRTDUR</t>
         </is>
       </c>
       <c r="F11" s="12" t="inlineStr">
         <is>
-          <t>Current Therapy or Treatment</t>
+          <t>Planned Treatment Duration</t>
         </is>
       </c>
       <c r="G11" s="32" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C165822"].{id: label}</t>
+          <t>14 Day</t>
         </is>
       </c>
       <c r="H11" s="33" t="inlineStr">
@@ -3623,14 +4296,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12" ht="43.5" customHeight="1">
       <c r="A12" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B12" s="9" t="inlineStr">
@@ -3638,29 +4308,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C12" s="9" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C12" s="9" t="n">
+        <v>1</v>
       </c>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E12" s="9" t="inlineStr">
         <is>
-          <t>DMCIND</t>
+          <t>ROUTE</t>
         </is>
       </c>
       <c r="F12" s="12" t="inlineStr">
         <is>
-          <t>Data Monitoring Committee Indicator</t>
+          <t>Route of Administration</t>
         </is>
       </c>
       <c r="G12" s="32" t="inlineStr">
         <is>
-          <t>dy.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
+          <t>ORAL</t>
         </is>
       </c>
       <c r="H12" s="33" t="inlineStr">
@@ -3668,14 +4336,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>C38288</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>http://www.cdisc.org</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2024-09-27</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -3695,17 +4375,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DOSE</t>
+          <t>STYPE</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dose Level; Dose per Administration</t>
+          <t>Study Type; Study Type Classification</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.value}</t>
+          <t>onal Study', 'Interventional Study'</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -3713,14 +4393,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>C98388</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>7', '2024-09-27'</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -3740,17 +4432,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DOSFRM</t>
+          <t>TBLIND</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dose Form</t>
+          <t>Study Blinding Design; Study Blinding Schema; Study Masking Design; Trial Blinding Design; Trial Blinding Schema; Trial Masking Design</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+          <t>nd Study</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -3758,14 +4450,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>6084', 'C98388'</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>24-09-27', '2024-09-27'</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3785,17 +4489,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>DOSFRQ</t>
+          <t>THERAREA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Dosing Frequency</t>
+          <t>Therapeutic Area</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
+          <t>'s disease", "Parkinson's disease"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -3805,24 +4509,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+          <t>, '49049000'</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+          <t>SNOMED</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+          <t>1, 2018', 'January 31, 2018'</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3842,17 +4546,17 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>DOSU</t>
+          <t>TITLE</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Dose Units</t>
+          <t>Official Study Title; Study Title; Trial Title</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
+          <t>, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -3862,24 +4566,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+          <t>049000', '49049000'</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+          <t>OMED', 'SNOMED'</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+          <t>nuary 31, 2018', 'January 31, 2018'</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3887,29 +4591,27 @@
           <t> </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>EXTTIND</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Extension Trial Indicator</t>
+          <t>Investigational Therapy or Treatment</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
+          <t>LY900018</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -3917,14 +4619,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>9049000', '49049000'</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>NOMED', 'SNOMED'</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>anuary 31, 2018', 'January 31, 2018'</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3944,28 +4658,44 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>FCNTRY</t>
+          <t>TTYPE</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Planned Country of Investigational Sites</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>Trial Scope; Trial Type</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Study', 'Safety Study', 'Pharmacokinetic Study'</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>'C49667', 'C49663'</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>org', 'http://www.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>7', '2024-09-27', '2024-09-27'</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3985,17 +4715,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HLTSUBJI</t>
+          <t>TTYPE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Healthy Subject Indicator</t>
+          <t>Trial Scope; Trial Type</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
+          <t xml:space="preserve"> Study', 'Safety Study', 'Pharmacokinetic Study'</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -4003,14 +4733,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 'C49667', 'C49663'</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>.org', 'http://www.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>27', '2024-09-27', '2024-09-27'</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4030,17 +4772,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>INDIC</t>
+          <t>TTYPE</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trial Disease/Condition Indication; Trial Disease/Condition Indication Description</t>
+          <t>Trial Scope; Trial Type</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.indications.label</t>
+          <t>ficacy Study', 'Safety Study', 'Pharmacokinetic Study'</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -4048,14 +4790,26 @@
           <t> </t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>9666', 'C49667', 'C49663'</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>.cdisc.org', 'http://www.cdisc.org', 'http://www.cdisc.org'</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>24-09-27', '2024-09-27', '2024-09-27'</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4075,17 +4829,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>INTMODEL</t>
+          <t>TTYPE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Intervention Model</t>
+          <t>Trial Scope; Trial Type</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.decode</t>
+          <t>fficacy Study', 'Safety Study', 'Pharmacokinetic Study'</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -4095,24 +4849,24 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.code</t>
+          <t>49666', 'C49667', 'C49663'</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+          <t>w.cdisc.org', 'http://www.cdisc.org', 'http://www.cdisc.org'</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+          <t>024-09-27', '2024-09-27', '2024-09-27'</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4120,14 +4874,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C22" t="n">
+        <v>1</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4142,7 +4894,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.decode}</t>
+          <t>Pharmacologic Substance</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -4152,24 +4904,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.code}</t>
+          <t>C1909</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.codeSystem}</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.codeSystemVersion}</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4197,24 +4949,17 @@
           <t>Trial Length</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4248,14 +4993,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4283,24 +5025,17 @@
           <t>Planned Number of Arms</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>y.versions.studyDesigns.arms)</t>
-        </is>
-      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -4328,24 +5063,17 @@
           <t>Number of Groups/Cohorts</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
-        </is>
-      </c>
+      <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4379,14 +5107,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4414,24 +5139,17 @@
           <t>Trial Exploratory Objective</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4439,14 +5157,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C29" t="n">
+        <v>1</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -4461,7 +5177,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+          <t>•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -4469,14 +5185,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4484,14 +5197,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C30" t="n">
+        <v>1</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t> </t>
+          <t>Objective_2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -4506,7 +5217,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+          <t>•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -4514,14 +5225,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4551,7 +5259,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.decode</t>
+          <t>COHORT</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -4561,24 +5269,24 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.code</t>
+          <t>C15208</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+          <t>www.cdisc.org</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4608,7 +5316,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
+          <t>PROSPECTIVE</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -4618,24 +5326,24 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+          <t>C15273</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+          <t>www.cdisc.org</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4663,24 +5371,17 @@
           <t>Obs Study Population Description</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].populations.description</t>
-        </is>
-      </c>
+      <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4708,36 +5409,17 @@
           <t>Observational Study Sampling Method</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
-        </is>
-      </c>
+      <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -4765,24 +5447,17 @@
           <t>Exploratory Outcome Measure</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -4810,24 +5485,17 @@
           <t>Primary Outcome Measure</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -4855,24 +5523,17 @@
           <t>Secondary Outcome Measure</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -4900,24 +5561,17 @@
           <t>Pharmacologic Class</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -4945,24 +5599,17 @@
           <t>Pediatric Investigation Plan Indicator</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>dy.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -4990,24 +5637,17 @@
           <t>Anticipated Enrollment; Planned Enrollment; Planned Number of Subjects; Target Enrollment</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ons.studyDesigns.population.plannedEnrollmentNumber.value </t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -5015,14 +5655,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C41" t="n">
+        <v>1</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -5037,7 +5675,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t>14 Day</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -5045,14 +5683,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -5080,24 +5715,17 @@
           <t>Trial is Randomized</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -5125,24 +5753,17 @@
           <t>Rare Disease Indicator</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>dy.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
-        </is>
-      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -5176,14 +5797,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -5191,14 +5809,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C45" t="n">
+        <v>1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -5213,7 +5829,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.decode}</t>
+          <t>ORAL</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -5223,24 +5839,24 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.code}</t>
+          <t>C38288</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+          <t>http://www.cdisc.org</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -5274,14 +5890,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -5315,14 +5928,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -5352,7 +5962,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>ons.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
+          <t>ClinLine</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -5360,14 +5970,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -5401,14 +6008,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -5442,14 +6046,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -5479,7 +6080,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.decode</t>
+          <t>'Observational Study', 'Interventional Study'</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -5489,24 +6090,24 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.code</t>
+          <t>'C16084', 'C98388'</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.codeSystem</t>
+          <t>www.cdisc.org', 'http://www.cdisc.org'</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.codeSystemVersion</t>
+          <t>'2024-09-27', '2024-09-27'</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5536,7 +6137,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.decode</t>
+          <t>Double Blind Study</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -5546,24 +6147,24 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.code</t>
+          <t>C15228</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+          <t>www.cdisc.org</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -5591,36 +6192,17 @@
           <t>Control Type</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
-        </is>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -5650,7 +6232,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.decode</t>
+          <t>"Parkinson's disease", "Parkinson's disease"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -5660,24 +6242,24 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.code</t>
+          <t>'49049000', '49049000'</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystem</t>
+          <t>'SNOMED', 'SNOMED'</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystemVersion</t>
+          <t>'January 31, 2018', 'January 31, 2018'</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5707,7 +6289,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
+          <t>Treatment Study</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -5717,24 +6299,24 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
+          <t>C49656</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
+          <t>www.cdisc.org</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
+          <t>2024-09-27</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5764,7 +6346,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ons.titles[type.code="C207616"].text</t>
+          <t>A Phase II, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -5772,14 +6354,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5807,36 +6386,17 @@
           <t>Trial Phase; Trial Phase Classification</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.decode</t>
-        </is>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
           <t> </t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.code</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5844,14 +6404,12 @@
           <t> </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
+      <c r="C58" t="n">
+        <v>1</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t> </t>
+          <t>StudyIntervention_1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5866,7 +6424,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C41161"].{id: label}</t>
+          <t>LY900018</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -5874,14 +6432,11 @@
           <t> </t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">no data </t>
+          <t>CB0321</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -5911,7 +6466,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
+          <t>'Efficacy Study', 'Safety Study', 'Pharmacokinetic Study'</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -5921,17 +6476,17 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.code</t>
+          <t>'C49666', 'C49667', 'C49663'</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
+          <t>www.cdisc.org', 'http://www.cdisc.org', 'http://www.cdisc.org'</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
+          <t>'2024-09-27', '2024-09-27', '2024-09-27'</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6604,7 @@
       </c>
       <c r="G2" s="30" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C98704"]) ? "Y" : ""</t>
+          <t> </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -6057,9 +6612,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="87" customHeight="1">
       <c r="A3" s="15" t="inlineStr">
@@ -6086,9 +6653,7 @@
       </c>
       <c r="G3" s="28" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.population.plannedAge.minValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.minValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.minValue.unit.standardCode.decode)
- &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.minValue.unit.standardCode.decode)</t>
+          <t> </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6096,9 +6661,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="87" customHeight="1">
       <c r="A4" s="15" t="inlineStr">
@@ -6125,8 +6702,7 @@
       </c>
       <c r="G4" s="28" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.population.plannedAge.maxValue.value,study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.value]) &amp; " " &amp; 
-$distinct(study.versions.studyDesigns.population.plannedAge.maxValue.unit.standardCode.decode) &amp; " " &amp; $distinct(study.versions.studyDesigns.population.cohorts.plannedAge.maxValue.unit.standardCode.decode)</t>
+          <t> </t>
         </is>
       </c>
       <c r="H4" s="35" t="inlineStr">
@@ -6134,9 +6710,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="58" customHeight="1">
       <c r="A5" s="15" t="inlineStr">
@@ -6171,7 +6759,7 @@
       </c>
       <c r="G5" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.biospecimenRetentions.includesDNA</t>
+          <t> </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6179,9 +6767,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="6" ht="58" customHeight="1">
       <c r="A6" s="15" t="inlineStr">
@@ -6216,7 +6816,7 @@
       </c>
       <c r="G6" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.biospecimenRetentions.isRetained</t>
+          <t> </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6224,9 +6824,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="43.5" customHeight="1">
       <c r="A7" s="15" t="inlineStr">
@@ -6257,7 +6869,7 @@
       <c r="F7" s="14" t="n"/>
       <c r="G7" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C68609"].{id: label}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -6265,9 +6877,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="29" customHeight="1">
       <c r="A8" s="15" t="inlineStr">
@@ -6300,15 +6924,31 @@
           <t>Contact Name</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="29" customHeight="1">
       <c r="A9" s="15" t="inlineStr">
@@ -6341,15 +6981,31 @@
           <t>Contact Role</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="43.5" customHeight="1">
       <c r="A10" s="15" t="inlineStr">
@@ -6384,7 +7040,7 @@
       </c>
       <c r="G10" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions.{id: minimumResponseDuration.value &amp; " " &amp; minimumResponseDuration.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': '1 Day'}</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -6392,9 +7048,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="43.5" customHeight="1">
       <c r="A11" s="15" t="inlineStr">
@@ -6429,7 +7097,7 @@
       </c>
       <c r="G11" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C165822"].{id: label}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -6437,9 +7105,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="12" ht="29" customHeight="1">
       <c r="A12" s="15" t="inlineStr">
@@ -6466,7 +7146,7 @@
       </c>
       <c r="G12" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.roles.code[code="C142578"]) ? "Y" : ""</t>
+          <t> </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -6474,9 +7154,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="43.5" customHeight="1">
       <c r="A13" s="15" t="inlineStr">
@@ -6511,7 +7203,7 @@
       </c>
       <c r="G13" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.value}</t>
+          <t>{'StudyIntervention_1': 20}</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -6519,9 +7211,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="14" ht="43.5" customHeight="1">
       <c r="A14" s="15" t="inlineStr">
@@ -6556,7 +7260,7 @@
       </c>
       <c r="G14" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.administrableProduct.administrableDoseForm.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'TABLET'}</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -6564,9 +7268,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="15" ht="58" customHeight="1">
       <c r="A15" s="15" t="inlineStr">
@@ -6601,7 +7317,7 @@
       </c>
       <c r="G15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'BID'}</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -6611,17 +7327,17 @@
       </c>
       <c r="I15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C64496'}</t>
         </is>
       </c>
       <c r="J15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K15" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.frequency.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6658,7 +7374,7 @@
       </c>
       <c r="G16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'Milligram'}</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -6668,17 +7384,17 @@
       </c>
       <c r="I16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C28253'}</t>
         </is>
       </c>
       <c r="J16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K16" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.dose.unit.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6707,7 +7423,7 @@
       </c>
       <c r="G17" s="36" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C207613"]) ? "Y" : ""</t>
+          <t> </t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -6715,9 +7431,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="29" customHeight="1">
       <c r="A18" s="15" t="inlineStr">
@@ -6746,15 +7474,31 @@
           <t>Planned Country of Investigational Sites</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="29" customHeight="1">
       <c r="A19" s="15" t="inlineStr">
@@ -6781,7 +7525,7 @@
       </c>
       <c r="G19" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.population[includesHealthySubjects=true]) ? "Y" : ($exists(study.versions.studyDesigns.population.cohorts[includesHealthySubjects=true]) ? "Y" : "")</t>
+          <t> </t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -6789,9 +7533,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="20" ht="58" customHeight="1">
       <c r="A20" s="15" t="inlineStr">
@@ -6818,7 +7574,7 @@
       </c>
       <c r="G20" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.indications.label</t>
+          <t>'s disease", "Parkinson's disease"</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -6826,9 +7582,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="21" ht="43.5" customHeight="1">
       <c r="A21" s="15" t="inlineStr">
@@ -6855,7 +7623,7 @@
       </c>
       <c r="G21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -6865,17 +7633,17 @@
       </c>
       <c r="I21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K21" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].model.codeSystemVersion</t>
+          <t>Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: 2024-09-27</t>
         </is>
       </c>
     </row>
@@ -6912,7 +7680,7 @@
       </c>
       <c r="G22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.decode}</t>
+          <t>{'StudyIntervention_1': 'Pharmacologic Substance'}</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -6922,17 +7690,17 @@
       </c>
       <c r="I22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.code}</t>
+          <t>{'StudyIntervention_1': 'C1909'}</t>
         </is>
       </c>
       <c r="J22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K22" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: type.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -6961,7 +7729,7 @@
       </c>
       <c r="G23" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.value &amp; " " &amp; study.versions.studyDesigns.scheduleTimelines[mainTimeline=true].plannedDuration.quantity.unit.standardCode.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -6969,9 +7737,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="29" customHeight="1">
       <c r="A24" s="15" t="inlineStr">
@@ -6996,15 +7776,31 @@
           <t>Multiple Site Eu Site Trial Indicator</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="29" customHeight="1">
       <c r="A25" s="15" t="inlineStr">
@@ -7031,7 +7827,7 @@
       </c>
       <c r="G25" s="28" t="inlineStr">
         <is>
-          <t>y.versions.studyDesigns.arms)</t>
+          <t> </t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -7039,9 +7835,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="29" customHeight="1">
       <c r="A26" s="15" t="inlineStr">
@@ -7068,7 +7876,7 @@
       </c>
       <c r="G26" s="29" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.population.cohorts) ? $count(study.versions.studyDesigns.population.cohorts) : ""</t>
+          <t> </t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -7076,9 +7884,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="29" customHeight="1">
       <c r="A27" s="15" t="inlineStr">
@@ -7103,15 +7923,31 @@
           <t>Number of Trial Sites EU State</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="43.5" customHeight="1">
       <c r="A28" s="15" t="inlineStr">
@@ -7146,7 +7982,7 @@
       </c>
       <c r="G28" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: text}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -7154,9 +7990,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="43.5" customHeight="1">
       <c r="A29" s="15" t="inlineStr">
@@ -7191,7 +8039,7 @@
       </c>
       <c r="G29" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: text}</t>
+          <t>{'Objective_1': '•\tTo evaluate the effect of intravenous infusions of Beroclin administered once daily on motor symptoms in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -7199,9 +8047,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="43.5" customHeight="1">
       <c r="A30" s="15" t="inlineStr">
@@ -7236,7 +8096,7 @@
       </c>
       <c r="G30" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: text}</t>
+          <t>{'Objective_2': '•\tTo evaluate the safety and tolerability of intravenous infusions of Beroclin administered once daily in subjects with early stage Parkinson s disease.'}</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -7244,9 +8104,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="29" customHeight="1">
       <c r="A31" s="15" t="inlineStr">
@@ -7273,7 +8145,7 @@
       </c>
       <c r="G31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -7283,17 +8155,17 @@
       </c>
       <c r="I31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K31" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].model.codeSystemVersion</t>
+          <t>Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: 2024-09-27</t>
         </is>
       </c>
     </row>
@@ -7322,7 +8194,7 @@
       </c>
       <c r="G32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -7332,17 +8204,17 @@
       </c>
       <c r="I32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K32" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].timePerspective.codeSystemVersion</t>
+          <t>Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: 2024-09-27</t>
         </is>
       </c>
     </row>
@@ -7371,7 +8243,7 @@
       </c>
       <c r="G33" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].populations.description</t>
+          <t> </t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -7379,9 +8251,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="34" ht="43.5" customHeight="1">
       <c r="A34" s="15" t="inlineStr">
@@ -7408,7 +8292,7 @@
       </c>
       <c r="G34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -7418,17 +8302,17 @@
       </c>
       <c r="I34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K34" s="29" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C16084"].samplingMethod.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -7465,7 +8349,7 @@
       </c>
       <c r="G35" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C163559"].{id: objectives.endpoint.text}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -7473,9 +8357,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="29" customHeight="1">
       <c r="A36" s="15" t="inlineStr">
@@ -7510,7 +8406,7 @@
       </c>
       <c r="G36" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85826"].{id: objectives.endpoint.text}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -7518,9 +8414,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="29" customHeight="1">
       <c r="A37" s="15" t="inlineStr">
@@ -7555,7 +8463,7 @@
       </c>
       <c r="G37" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.objectives[level.code="C85827"].{id: objectives.endpoint.text}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -7563,9 +8471,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="43.5" customHeight="1">
       <c r="A38" s="15" t="inlineStr">
@@ -7596,7 +8516,7 @@
       </c>
       <c r="G38" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions.administrations.administrableProduct[producDesignation.code="C202579"].pharmacologicClass.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7604,9 +8524,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="29" customHeight="1">
       <c r="A39" s="15" t="inlineStr">
@@ -7633,7 +8565,7 @@
       </c>
       <c r="G39" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.referenceIdentifiers.type[code="C215674"]) ? "Y" : ""</t>
+          <t> </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -7641,9 +8573,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="72.5" customHeight="1">
       <c r="A40" s="15" t="inlineStr">
@@ -7670,7 +8614,7 @@
       </c>
       <c r="G40" s="28" t="inlineStr">
         <is>
-          <t xml:space="preserve">ons.studyDesigns.population.plannedEnrollmentNumber.value </t>
+          <t> </t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7678,9 +8622,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="43.5" customHeight="1">
       <c r="A41" s="15" t="inlineStr">
@@ -7711,7 +8667,7 @@
       </c>
       <c r="G41" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.duration.quantity.value &amp; " " &amp; administrations.duration.quantity.unit.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': '14 Day'}</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -7719,9 +8675,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="29" customHeight="1">
       <c r="A42" s="15" t="inlineStr">
@@ -7748,7 +8716,7 @@
       </c>
       <c r="G42" s="28" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.characteristics[code="C46079"]) ? "Y" : $exists(study.versions.studyDesigns.characteristics[code="C147145"]) ? "Y" : ""</t>
+          <t> </t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -7756,9 +8724,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="15" t="inlineStr">
@@ -7785,7 +8765,7 @@
       </c>
       <c r="G43" s="29" t="inlineStr">
         <is>
-          <t>dy.versions.studyDesigns.indications[isRareDisease=true]) ? "Y" : ""</t>
+          <t> </t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -7793,9 +8773,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="43.5" customHeight="1">
       <c r="A44" s="15" t="inlineStr">
@@ -7828,15 +8820,31 @@
           <t>Registry Identifier</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H44" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="58" customHeight="1">
       <c r="A45" s="15" t="inlineStr">
@@ -7871,7 +8879,7 @@
       </c>
       <c r="G45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.decode}</t>
+          <t>{'StudyIntervention_1': 'ORAL'}</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -7881,17 +8889,17 @@
       </c>
       <c r="I45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.code}</t>
+          <t>{'StudyIntervention_1': 'C38288'}</t>
         </is>
       </c>
       <c r="J45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystem}</t>
+          <t>{'StudyIntervention_1': 'http://www.cdisc.org'}</t>
         </is>
       </c>
       <c r="K45" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: administrations.route.standardCode.codeSystemVersion}</t>
+          <t>{'StudyIntervention_1': '2024-09-27'}</t>
         </is>
       </c>
     </row>
@@ -7926,15 +8934,31 @@
           <t>Retained Biospecimen Description</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="15" t="inlineStr">
@@ -7959,15 +8983,31 @@
           <t>Sex of Participants</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="29" customHeight="1">
       <c r="A48" s="15" t="inlineStr">
@@ -7994,7 +9034,7 @@
       </c>
       <c r="G48" s="28" t="inlineStr">
         <is>
-          <t>ons.($sponsorIdVal:=roles[code.code="C70793"].organizationIds[0];organizations[id=$sponsorIdVal].label;)</t>
+          <t> </t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8002,9 +9042,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="29" customHeight="1">
       <c r="A49" s="15" t="inlineStr">
@@ -8033,15 +9085,31 @@
           <t>Sponsor's Study Reference ID</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H49" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="29" customHeight="1">
       <c r="A50" s="15" t="inlineStr">
@@ -8066,15 +9134,31 @@
           <t>Single Site Eu State Trial Indicator</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="H50" t="inlineStr">
         <is>
           <t> </t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="29" customHeight="1">
       <c r="A51" s="15" t="inlineStr">
@@ -8101,7 +9185,7 @@
       </c>
       <c r="G51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.decode</t>
+          <t>onal Study', 'Interventional Study'</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -8111,17 +9195,17 @@
       </c>
       <c r="I51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.code</t>
+          <t>C98388</t>
         </is>
       </c>
       <c r="J51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.codeSystem</t>
+          <t>org', 'http://www.cdisc.org'</t>
         </is>
       </c>
       <c r="K51" s="31" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.studyType.codeSystemVersion</t>
+          <t>7', '2024-09-27'</t>
         </is>
       </c>
     </row>
@@ -8150,7 +9234,7 @@
       </c>
       <c r="G52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.decode</t>
+          <t>nd Study</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -8160,17 +9244,17 @@
       </c>
       <c r="I52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K52" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.blindingSchema.standardCode.codeSystemVersion</t>
+          <t>Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: 2024-09-27</t>
         </is>
       </c>
     </row>
@@ -8199,7 +9283,7 @@
       </c>
       <c r="G53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].decode : role[code="C68609"].decode}</t>
+          <t> </t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -8209,17 +9293,17 @@
       </c>
       <c r="I53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].code : role[code="C68609"].code}</t>
+          <t> </t>
         </is>
       </c>
       <c r="J53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystem : role[code="C68609"].codeSystem}</t>
+          <t> </t>
         </is>
       </c>
       <c r="K53" s="29" t="inlineStr">
         <is>
-          <t>ons.studyInterventions{id: role[code="C753"].decode ? role[code="C753"].codeSystemVersion : role[code="C68609"].codeSystemVersion}</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8248,7 +9332,7 @@
       </c>
       <c r="G54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.decode</t>
+          <t>'s disease", "Parkinson's disease"</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -8258,17 +9342,17 @@
       </c>
       <c r="I54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.code</t>
+          <t>, '49049000'</t>
         </is>
       </c>
       <c r="J54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystem</t>
+          <t>SNOMED</t>
         </is>
       </c>
       <c r="K54" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns.therapeuticAreas.codeSystemVersion</t>
+          <t>1, 2018', 'January 31, 2018'</t>
         </is>
       </c>
     </row>
@@ -8301,7 +9385,7 @@
       </c>
       <c r="G55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -8311,17 +9395,17 @@
       </c>
       <c r="I55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K55" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].intentTypes.codeSystemVersion</t>
+          <t>Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: Error in expression for: 2024-09-27</t>
         </is>
       </c>
     </row>
@@ -8350,7 +9434,7 @@
       </c>
       <c r="G56" s="28" t="inlineStr">
         <is>
-          <t>ons.titles[type.code="C207616"].text</t>
+          <t>, Placebo-, Real-World Data Controlled study of Beroclin in subjects with early Parkinson disease</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -8358,9 +9442,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="29" customHeight="1">
       <c r="A57" s="15" t="inlineStr">
@@ -8387,7 +9483,7 @@
       </c>
       <c r="G57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.decode</t>
+          <t> </t>
         </is>
       </c>
       <c r="H57" s="35" t="inlineStr">
@@ -8397,17 +9493,17 @@
       </c>
       <c r="I57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.code</t>
+          <t> </t>
         </is>
       </c>
       <c r="J57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystem</t>
+          <t> </t>
         </is>
       </c>
       <c r="K57" s="31" t="inlineStr">
         <is>
-          <t>.versions.studyDesigns.studyPhase.standardCode.codeSystemVersion</t>
+          <t> </t>
         </is>
       </c>
     </row>
@@ -8444,7 +9540,7 @@
       </c>
       <c r="G58" s="28" t="inlineStr">
         <is>
-          <t>ons.studyInterventions[role.code="C41161"].{id: label}</t>
+          <t>{'StudyIntervention_1': 'LY900018'}</t>
         </is>
       </c>
       <c r="H58" s="35" t="inlineStr">
@@ -8452,9 +9548,21 @@
           <t> </t>
         </is>
       </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="43.5" customHeight="1">
       <c r="A59" s="15" t="inlineStr">
@@ -8481,7 +9589,7 @@
       </c>
       <c r="G59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.decode</t>
+          <t>Study', 'Safety Study', 'Pharmacokinetic Study'</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -8491,17 +9599,17 @@
       </c>
       <c r="I59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.code</t>
+          <t>'C49667', 'C49663'</t>
         </is>
       </c>
       <c r="J59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystem</t>
+          <t>org', 'http://www.cdisc.org', 'http://www.cdisc.org'</t>
         </is>
       </c>
       <c r="K59" s="28" t="inlineStr">
         <is>
-          <t>ons.studyDesigns[studyType.code="C98388"].subTypes.codeSystemVersion</t>
+          <t>7', '2024-09-27', '2024-09-27'</t>
         </is>
       </c>
     </row>
